--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/21.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/21.xlsx
@@ -479,13 +479,13 @@
         <v>-8.500219021093468</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.44060285736717</v>
+        <v>-21.48973248737279</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004018628940668597</v>
+        <v>-0.02282201875869447</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.06692737576852</v>
+        <v>-9.046457104016747</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.591407901193731</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.58209071609568</v>
+        <v>-21.63208570031676</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1248262580300079</v>
+        <v>-0.1529478255285027</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.548105967051505</v>
+        <v>-8.537658159376909</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.598997233006644</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.78560540494475</v>
+        <v>-21.82194050397966</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2907835961274359</v>
+        <v>-0.3181815906096273</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.445285263633417</v>
+        <v>-8.429943560085038</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.505922546237748</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.90776213052149</v>
+        <v>-21.94638039576325</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3328437222035052</v>
+        <v>-0.3566287406110464</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.903431743566367</v>
+        <v>-7.88103520310903</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.311557879707999</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.86780916640506</v>
+        <v>-21.89256709717912</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4596938943724804</v>
+        <v>-0.481332638765446</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.204479765844738</v>
+        <v>-7.187910921572763</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.004381555146736</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.13565829661587</v>
+        <v>-22.1639363123341</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5938091307456913</v>
+        <v>-0.6255583413394369</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.596140641394511</v>
+        <v>-6.581121612299349</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.5909693579174</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.51874131867985</v>
+        <v>-22.54767935032512</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7633012208078986</v>
+        <v>-0.7930361605724754</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.152370377091509</v>
+        <v>-6.140915434002327</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.068155260933145</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.77402570124268</v>
+        <v>-22.80791629684414</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9034641586754834</v>
+        <v>-0.9318643995653922</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.83339201306651</v>
+        <v>-5.813611091282971</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.430764720581723</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.2220640685405</v>
+        <v>-23.24931050380982</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.994301906262763</v>
+        <v>-1.026178231035048</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.506899245487062</v>
+        <v>-5.491542874918083</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.689128828052832</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.63324910207552</v>
+        <v>-23.65802658887704</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.258914513927668</v>
+        <v>-1.29296644675573</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.151043102664924</v>
+        <v>-5.119802348785337</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.839414755441986</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.09991458553628</v>
+        <v>-24.12201289657474</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.198936177684355</v>
+        <v>-1.225561709081574</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.990380559004366</v>
+        <v>-4.96034250081404</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.876421607821894</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.67500357428462</v>
+        <v>-24.69546895702953</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.121528531960491</v>
+        <v>-1.152407499331926</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.920594874986021</v>
+        <v>-4.893265326599966</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.816412686426918</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.28400760366875</v>
+        <v>-25.30174980958878</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.055258043879459</v>
+        <v>-1.09034155715644</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.810621554521636</v>
+        <v>-4.777967877657511</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.663331919142527</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.88549722949843</v>
+        <v>-25.90165539719358</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.011428097317566</v>
+        <v>-1.046516499601415</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.816322136528459</v>
+        <v>-4.789652604069438</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.4308284440285309</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.63875140649088</v>
+        <v>-26.65892344882377</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9354529306057079</v>
+        <v>-0.9648700849239351</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.779493247799989</v>
+        <v>-4.75516554963022</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8404014312075153</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.41633572615654</v>
+        <v>-27.42855335431696</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8144793446907643</v>
+        <v>-0.8403764140648129</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.804045840285636</v>
+        <v>-4.78247065298194</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.121255949163583</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.29470936688708</v>
+        <v>-28.31240512724187</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6581386831005581</v>
+        <v>-0.6779391609115637</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.036195442354225</v>
+        <v>-5.022975567786087</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.374196387266087</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.94298678843313</v>
+        <v>-28.95620666300127</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3982048550072911</v>
+        <v>-0.4237254708525871</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.318956043509118</v>
+        <v>-5.315352845448202</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>4.546650276361544</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.37241759559547</v>
+        <v>-29.38472811488636</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1971542256191477</v>
+        <v>-0.2196827692618918</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.662213215635217</v>
+        <v>-5.654542363861027</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5.608031318264498</v>
       </c>
       <c r="E21" t="n">
-        <v>-29.97586037966849</v>
+        <v>-29.98515927072936</v>
       </c>
       <c r="F21" t="n">
-        <v>0.214671267815433</v>
+        <v>0.1878159530954692</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.010882518362989</v>
+        <v>-6.006399299066029</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.530139063759187</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.50533004534164</v>
+        <v>-30.52325558901918</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2692570294845383</v>
+        <v>0.2496325559207418</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.267286483498344</v>
+        <v>-6.264768644961883</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.284121471296159</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.83325040292623</v>
+        <v>-30.84667072677591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5555914946591461</v>
+        <v>0.5358887969854789</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.584749255394599</v>
+        <v>-6.57707840362041</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.865264673264655</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.00987555400726</v>
+        <v>-31.03126007004315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7423173339272288</v>
+        <v>0.7221501806012046</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.828681364012454</v>
+        <v>-6.830940085184968</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>8.272754612435245</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.291631464251</v>
+        <v>-31.31734764037098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9760705302481663</v>
+        <v>0.9599368075873469</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.89660922542137</v>
+        <v>-6.901517788315753</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>8.509134719211644</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.21439493376748</v>
+        <v>-31.23867129736515</v>
       </c>
       <c r="F26" t="n">
-        <v>1.03286123401425</v>
+        <v>1.009394001053058</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.042321186082903</v>
+        <v>-7.062239000058715</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.591967135265591</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.30022633832304</v>
+        <v>-31.3288783630666</v>
       </c>
       <c r="F27" t="n">
-        <v>1.269073600789246</v>
+        <v>1.247126848963665</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.291518755096425</v>
+        <v>-7.310761886124602</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>8.537476807660902</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.12053333543302</v>
+        <v>-31.14757443241392</v>
       </c>
       <c r="F28" t="n">
-        <v>1.411397479692007</v>
+        <v>1.395151309873249</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.469742611422943</v>
+        <v>-7.497776176797833</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>8.364278169600373</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.92762779148515</v>
+        <v>-30.95549268612313</v>
       </c>
       <c r="F29" t="n">
-        <v>1.429511250133927</v>
+        <v>1.412526840278264</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.775408209749332</v>
+        <v>-7.805416933898456</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.094377775641323</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.79251519771109</v>
+        <v>-30.82849339924472</v>
       </c>
       <c r="F30" t="n">
-        <v>1.551066627866033</v>
+        <v>1.539205897206898</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.821834218957557</v>
+        <v>-7.853373202256025</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.744735605919758</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.52809081681056</v>
+        <v>-30.5584148819026</v>
       </c>
       <c r="F31" t="n">
-        <v>1.47143937302459</v>
+        <v>1.450035300961236</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.773481941043768</v>
+        <v>-7.796245157016124</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>7.334372958875043</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.10031493847267</v>
+        <v>-30.13574312673377</v>
       </c>
       <c r="F32" t="n">
-        <v>1.444197826762139</v>
+        <v>1.427213416906477</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.791717936657361</v>
+        <v>-7.808037441579122</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.876130374145893</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.62843532918834</v>
+        <v>-29.65874961626665</v>
       </c>
       <c r="F33" t="n">
-        <v>1.387250674776314</v>
+        <v>1.365167030758459</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.017995841478784</v>
+        <v>-8.037644760076915</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.378180740547255</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.05379368456833</v>
+        <v>-29.08806806720883</v>
       </c>
       <c r="F34" t="n">
-        <v>1.385871974839844</v>
+        <v>1.365758600589356</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.02885921473707</v>
+        <v>-8.053592700476793</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.852240816889752</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.55942464369619</v>
+        <v>-28.59301945438219</v>
       </c>
       <c r="F35" t="n">
-        <v>1.409407653897173</v>
+        <v>1.385915975901646</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.010613441109744</v>
+        <v>-8.030047243405731</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.299451424054493</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.9380905389937</v>
+        <v>-27.96995464124882</v>
       </c>
       <c r="F36" t="n">
-        <v>1.336537006545805</v>
+        <v>1.316076512807766</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.85799331374526</v>
+        <v>-7.865957505931464</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.720080699346124</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.31566863026332</v>
+        <v>-27.34569935494335</v>
       </c>
       <c r="F37" t="n">
-        <v>1.428015214032651</v>
+        <v>1.40581423384999</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.744851916831114</v>
+        <v>-7.755861960295406</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.120368064400425</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.74096587305747</v>
+        <v>-26.76398576189034</v>
       </c>
       <c r="F38" t="n">
-        <v>1.266272199854504</v>
+        <v>1.238253301500214</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.663381506400843</v>
+        <v>-7.67146792375872</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.49564074087267</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.99391095677227</v>
+        <v>-26.01085136556613</v>
       </c>
       <c r="F39" t="n">
-        <v>1.345078101542306</v>
+        <v>1.323424690128739</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.590193073603126</v>
+        <v>-7.587851239313874</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.84532654582198</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.38509270964908</v>
+        <v>-25.39946150083095</v>
       </c>
       <c r="F40" t="n">
-        <v>1.350940020775737</v>
+        <v>1.323048236599987</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.232439996116625</v>
+        <v>-7.23075328874754</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.175248040745499</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.82625966873324</v>
+        <v>-24.83588123424732</v>
       </c>
       <c r="F41" t="n">
-        <v>1.399287409682659</v>
+        <v>1.375448612199581</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.242594463379207</v>
+        <v>-7.231266634468565</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.480264943778227</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.15121982359769</v>
+        <v>-24.16313922233923</v>
       </c>
       <c r="F42" t="n">
-        <v>1.403066611990784</v>
+        <v>1.376304188401292</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.968101172836268</v>
+        <v>-6.958127598827761</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.762582674872644</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.47004916385103</v>
+        <v>-23.48402683448354</v>
       </c>
       <c r="F43" t="n">
-        <v>1.361793616020288</v>
+        <v>1.335016525410195</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.889290382141598</v>
+        <v>-6.877356316379459</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.02962086408258271</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.80439621189996</v>
+        <v>-22.81423289371619</v>
       </c>
       <c r="F44" t="n">
-        <v>1.472646957720718</v>
+        <v>1.445371188410199</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.819069576512099</v>
+        <v>-6.80307763505042</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.720550525249542</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.97627178374757</v>
+        <v>-21.98426530997498</v>
       </c>
       <c r="F45" t="n">
-        <v>1.522030816083425</v>
+        <v>1.49284833409481</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.660015516110755</v>
+        <v>-6.642063082895444</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.479351277829869</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.463532299573</v>
+        <v>-21.46949688795063</v>
       </c>
       <c r="F46" t="n">
-        <v>1.506782003665518</v>
+        <v>1.476959061777336</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.518244094983955</v>
+        <v>-6.508602973442399</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.23345122096374</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.79553751333268</v>
+        <v>-20.79250632907519</v>
       </c>
       <c r="F47" t="n">
-        <v>1.573619616543112</v>
+        <v>1.547644323059193</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.509507439712778</v>
+        <v>-6.497783601245916</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.977407795957456</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.15222732276341</v>
+        <v>-20.14836500733854</v>
       </c>
       <c r="F48" t="n">
-        <v>1.619791397394257</v>
+        <v>1.596387721522335</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.469598476658152</v>
+        <v>-6.456544828323489</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.695991282139839</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.41131788810991</v>
+        <v>-19.39816645963791</v>
       </c>
       <c r="F49" t="n">
-        <v>1.776694294774158</v>
+        <v>1.748484725152059</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.216783042563113</v>
+        <v>-6.208765071301372</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.373471823324579</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.01154379660228</v>
+        <v>-18.99561541222987</v>
       </c>
       <c r="F50" t="n">
-        <v>1.763440197157952</v>
+        <v>1.732478116669779</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.205420990604402</v>
+        <v>-6.203812507345187</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.001564261218255</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.43441609199044</v>
+        <v>-18.41958773416308</v>
       </c>
       <c r="F51" t="n">
-        <v>1.722895663210626</v>
+        <v>1.69856307603399</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.273979533899151</v>
+        <v>-6.273710638521471</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.564450161136199</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.96367806580953</v>
+        <v>-17.95900906425162</v>
       </c>
       <c r="F52" t="n">
-        <v>1.757671169054992</v>
+        <v>1.724499257462974</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.266000674692346</v>
+        <v>-6.266680246646847</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.047468046492517</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.57565225780309</v>
+        <v>-17.56608447136454</v>
       </c>
       <c r="F53" t="n">
-        <v>1.851965444497181</v>
+        <v>1.815987242963554</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.183684466074099</v>
+        <v>-6.18048216657627</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.441595391527232</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.95796535222332</v>
+        <v>-16.94388990145347</v>
       </c>
       <c r="F54" t="n">
-        <v>1.903456464819529</v>
+        <v>1.867140921812085</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.174801140596914</v>
+        <v>-6.176331399746259</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.734228730977775</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.74923409304726</v>
+        <v>-16.7409374483941</v>
       </c>
       <c r="F55" t="n">
-        <v>1.890402816484866</v>
+        <v>1.858203817259364</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.378516278727527</v>
+        <v>-6.385952458172104</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.918437721208939</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.19892259110044</v>
+        <v>-16.19220998467217</v>
       </c>
       <c r="F56" t="n">
-        <v>1.932961621261361</v>
+        <v>1.902048430841857</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.300981518825122</v>
+        <v>-6.308847930873989</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.993206350875628</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.10378740647715</v>
+        <v>-16.0963023369639</v>
       </c>
       <c r="F57" t="n">
-        <v>1.977099575255869</v>
+        <v>1.944929910071568</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.442288484299564</v>
+        <v>-6.460265362549211</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.959254916520393</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.89665485254656</v>
+        <v>-15.89258719883328</v>
       </c>
       <c r="F58" t="n">
-        <v>1.883220865397368</v>
+        <v>1.850034286784749</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.608504939760939</v>
+        <v>-6.625005337936777</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.823943417664469</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.64267583481719</v>
+        <v>-15.63842239884298</v>
       </c>
       <c r="F59" t="n">
-        <v>1.921839130639129</v>
+        <v>1.889586352338091</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.404545351286981</v>
+        <v>-6.412225981074905</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.59725751283034</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41118135966877</v>
+        <v>-15.4137187542327</v>
       </c>
       <c r="F60" t="n">
-        <v>1.977622698990629</v>
+        <v>1.946474836241514</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.424810284750344</v>
+        <v>-6.430320195489357</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.292289791781701</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29078956557099</v>
+        <v>-15.29400653208942</v>
       </c>
       <c r="F61" t="n">
-        <v>1.934208318012424</v>
+        <v>1.902532442521682</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.297471211894678</v>
+        <v>-6.293256887975397</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.926975860369541</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.24267684899368</v>
+        <v>-15.25308554461334</v>
       </c>
       <c r="F62" t="n">
-        <v>1.931822482661369</v>
+        <v>1.896220734656495</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.373016146002247</v>
+        <v>-6.368982715337042</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.517247536921627</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.17912464873065</v>
+        <v>-15.19546859868675</v>
       </c>
       <c r="F63" t="n">
-        <v>1.90919126987442</v>
+        <v>1.87885987127208</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.416611420234528</v>
+        <v>-6.405899606189116</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.081409847331145</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.2148486219072</v>
+        <v>-15.23611091277141</v>
       </c>
       <c r="F64" t="n">
-        <v>1.769194558240311</v>
+        <v>1.735362630721259</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.418483909864556</v>
+        <v>-6.405361815433756</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.638574770391342</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.27087175159518</v>
+        <v>-15.29577635257524</v>
       </c>
       <c r="F65" t="n">
-        <v>1.752107479240443</v>
+        <v>1.718026212371179</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.517720971249195</v>
+        <v>-6.504857994182342</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.201359439541264</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.2771492364123</v>
+        <v>-15.30507035462925</v>
       </c>
       <c r="F66" t="n">
-        <v>1.823496757511135</v>
+        <v>1.799692183076126</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.460856932380108</v>
+        <v>-6.452164278170733</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.784090264836189</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.16637900782861</v>
+        <v>-15.19511659019233</v>
       </c>
       <c r="F67" t="n">
-        <v>1.638208286261925</v>
+        <v>1.617058442555651</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.236451517188712</v>
+        <v>-6.218059073355378</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.398081673649949</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.29017355070576</v>
+        <v>-15.3257508536763</v>
       </c>
       <c r="F68" t="n">
-        <v>1.629505854038817</v>
+        <v>1.603784788911977</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.356936202416963</v>
+        <v>-6.337169947654027</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.045287651244525</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.20195142179228</v>
+        <v>-15.23815940664865</v>
       </c>
       <c r="F69" t="n">
-        <v>1.583901197984234</v>
+        <v>1.556009413808484</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.221628048368226</v>
+        <v>-6.213566076044683</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.728654810815337</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.25017169652066</v>
+        <v>-15.2876703791899</v>
       </c>
       <c r="F70" t="n">
-        <v>1.513807506533275</v>
+        <v>1.493058561390088</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.16224128195581</v>
+        <v>-6.1469484684761</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.445810778017059</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.28475164209035</v>
+        <v>-15.32318901407804</v>
       </c>
       <c r="F71" t="n">
-        <v>1.411358367637072</v>
+        <v>1.388912937111065</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.162681292573832</v>
+        <v>-6.150585889585084</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.185728339017452</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.39243201833415</v>
+        <v>-15.43382723947632</v>
       </c>
       <c r="F72" t="n">
-        <v>1.328132803741578</v>
+        <v>1.308229656786368</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.011043855589598</v>
+        <v>-6.00287921412185</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.941346411045357</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.5135816084963</v>
+        <v>-15.55307989497411</v>
       </c>
       <c r="F73" t="n">
-        <v>1.241220928668431</v>
+        <v>1.224637417375856</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.150996566161905</v>
+        <v>-6.146088003267523</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.702430970671501</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.61828946856502</v>
+        <v>-15.65661439339477</v>
       </c>
       <c r="F74" t="n">
-        <v>1.114268087355251</v>
+        <v>1.094105823036094</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.055509373044189</v>
+        <v>-6.054233342251925</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.454825680319696</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.88094647348316</v>
+        <v>-15.92162301061589</v>
       </c>
       <c r="F75" t="n">
-        <v>1.076241391944387</v>
+        <v>1.053585734123103</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.091350682385543</v>
+        <v>-6.090675999437908</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.192572584617471</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.92057676314637</v>
+        <v>-15.95821233800788</v>
       </c>
       <c r="F76" t="n">
-        <v>0.853703577376152</v>
+        <v>0.8268287066287205</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.237179979211882</v>
+        <v>-6.233532780089163</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9090615936423025</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.96954016691853</v>
+        <v>-16.00580193085043</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7039092959807449</v>
+        <v>0.6810727449053852</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.181655528224329</v>
+        <v>-6.177411870263847</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5985132086749153</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.09817482659393</v>
+        <v>-16.13325345086404</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7187816548699002</v>
+        <v>0.6965268956117033</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.164778676519739</v>
+        <v>-6.159723443419349</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2654403714578942</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.23857732579799</v>
+        <v>-16.27317193838828</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4449043791921917</v>
+        <v>0.419134423996683</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.168875664274213</v>
+        <v>-6.168132535230442</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.08530934310907602</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.69667238022105</v>
+        <v>-16.73226923921906</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4224296146249837</v>
+        <v>0.3964347651135969</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.125959961996434</v>
+        <v>-6.133748149935429</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.447051933917045</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.15651769910247</v>
+        <v>-17.18491305098551</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2671694235523657</v>
+        <v>0.2397469840358397</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.224072551801683</v>
+        <v>-6.237316871404156</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.8056164101757566</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.5876352136339</v>
+        <v>-17.61749726757701</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.04484210568727939</v>
+        <v>-0.06842178580641019</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.273544412287995</v>
+        <v>-6.287121184357418</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.14841748543912</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.06611253768513</v>
+        <v>-18.09016156246349</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.05799353415928061</v>
+        <v>-0.08331858972990004</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.316425891517707</v>
+        <v>-6.335331681072066</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.462986590141659</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.85662094700348</v>
+        <v>-18.87761434249001</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1683237521249502</v>
+        <v>-0.191155414193443</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.35350411959639</v>
+        <v>-6.377993154992766</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.733783150399977</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.55126570967535</v>
+        <v>-19.56837723370955</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3230070403872723</v>
+        <v>-0.3458044794076967</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.43819149654509</v>
+        <v>-6.46746198065731</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.948810327378157</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.19841377063515</v>
+        <v>-20.21704577580496</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.470405708417891</v>
+        <v>-0.4995001882829019</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.684020539827308</v>
+        <v>-6.720072076463938</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.097784228098051</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.96241887372795</v>
+        <v>-20.97845481625143</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5639568548163086</v>
+        <v>-0.5956571753413851</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.000481065315845</v>
+        <v>-7.040248247171331</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.171841056368959</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.79982263691374</v>
+        <v>-21.82052269198826</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6939066573389079</v>
+        <v>-0.7215784362056465</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.298891377451733</v>
+        <v>-7.344016910833358</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.165622827405273</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.79137678661336</v>
+        <v>-22.81041946836</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8872619899185272</v>
+        <v>-0.9167280343054236</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.370627775209976</v>
+        <v>-7.421512558680827</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.076931394314519</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.85073168354336</v>
+        <v>-23.86616627822221</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.145929565233263</v>
+        <v>-1.171112839604742</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.752302763296292</v>
+        <v>-7.797897641337141</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.907971630805667</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.06691125374339</v>
+        <v>-25.0763519260034</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.08574589070154</v>
+        <v>-1.104681014297102</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.10939582485576</v>
+        <v>-8.15920502681589</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.662560661396507</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.350920905215</v>
+        <v>-26.35815174637116</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.314942532622513</v>
+        <v>-1.328411746540864</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.368097623218564</v>
+        <v>-8.422541603688529</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.3476385532306</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.59012280875133</v>
+        <v>-27.596104508653</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.589910056831544</v>
+        <v>-1.60999409704083</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.666023923674627</v>
+        <v>-8.720727021508539</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.9770836337347628</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.10732097625074</v>
+        <v>-29.11013459970265</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.853994651754821</v>
+        <v>-1.865532707960741</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.002954720914937</v>
+        <v>-9.058474282895624</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.56561800401065</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.75998374601864</v>
+        <v>-30.76212513102635</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.131998249228206</v>
+        <v>-2.137346822740611</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.271478534073374</v>
+        <v>-9.322377984564826</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.126998974760803</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.57985543964189</v>
+        <v>-32.5853066822985</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.176361097538592</v>
+        <v>-2.175622857501688</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.621169639236333</v>
+        <v>-9.669790812527802</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3134166427892836</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.31406439944649</v>
+        <v>-34.31597844563489</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.549993669328833</v>
+        <v>-2.54521222061299</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.984848193045536</v>
+        <v>-10.02971460906321</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.7467696027922954</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.31577781447778</v>
+        <v>-36.31365598549754</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.951224684882809</v>
+        <v>-2.946658352469111</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.40032088560283</v>
+        <v>-10.44023962667119</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.150202459728216</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.37834225347812</v>
+        <v>-38.3647948154499</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.225713086418882</v>
+        <v>-3.2221343333923</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.7305195203874</v>
+        <v>-10.76762219350042</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.529632619772985</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.56772753060624</v>
+        <v>-40.55816707767799</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.585245762404941</v>
+        <v>-3.582053240920845</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.94806076993765</v>
+        <v>-10.98222026091678</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.8563941326525</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.46396062248384</v>
+        <v>-42.45737513023411</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.007406616356179</v>
+        <v>-4.001134020545927</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.20490474569103</v>
+        <v>-11.23358365997235</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.180493286094824</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.74623214107648</v>
+        <v>-44.74098623670828</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.252047630969736</v>
+        <v>-4.247882197119125</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.36138229947351</v>
+        <v>-11.38901985529218</v>
       </c>
     </row>
   </sheetData>
